--- a/spreadsheets/new/GSE132566.0.xlsx
+++ b/spreadsheets/new/GSE132566.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7696509A-0B4A-DA40-ACDD-1B968EAF99CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="29280" windowHeight="17780" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_suspension" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="Sequencing_protocol" sheetId="8" r:id="rId8"/>
     <sheet name="Specimen_from_organism" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6208" uniqueCount="2207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6209" uniqueCount="2208">
   <si>
     <t>CELL_SUSPENSION.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -6643,13 +6649,16 @@
   </si>
   <si>
     <t>human peripheral blood dendritic cells and monocytes</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6686,6 +6695,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -6732,7 +6749,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6764,9 +6781,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6798,6 +6833,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6973,75 +7026,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7220,7 +7269,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -7399,7 +7448,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -7557,7 +7606,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -7736,12 +7785,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -7767,7 +7816,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>215</v>
       </c>
@@ -7793,7 +7842,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>218</v>
       </c>
@@ -7819,7 +7868,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>221</v>
       </c>
@@ -7845,7 +7894,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>224</v>
       </c>
@@ -7871,7 +7920,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>227</v>
       </c>
@@ -7897,7 +7946,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>230</v>
       </c>
@@ -7923,7 +7972,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>233</v>
       </c>
@@ -7949,7 +7998,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>236</v>
       </c>
@@ -7975,7 +8024,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>239</v>
       </c>
@@ -8001,7 +8050,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>242</v>
       </c>
@@ -8027,7 +8076,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>245</v>
       </c>
@@ -8053,7 +8102,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>248</v>
       </c>
@@ -8079,7 +8128,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>251</v>
       </c>
@@ -8105,7 +8154,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>254</v>
       </c>
@@ -8131,7 +8180,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>257</v>
       </c>
@@ -8157,7 +8206,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>260</v>
       </c>
@@ -8183,7 +8232,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>263</v>
       </c>
@@ -8209,7 +8258,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>266</v>
       </c>
@@ -8235,7 +8284,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>269</v>
       </c>
@@ -8261,7 +8310,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>272</v>
       </c>
@@ -8287,7 +8336,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>275</v>
       </c>
@@ -8313,7 +8362,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>278</v>
       </c>
@@ -8339,7 +8388,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>281</v>
       </c>
@@ -8365,7 +8414,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>284</v>
       </c>
@@ -8391,7 +8440,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>287</v>
       </c>
@@ -8417,7 +8466,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>290</v>
       </c>
@@ -8443,7 +8492,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>293</v>
       </c>
@@ -8469,7 +8518,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>296</v>
       </c>
@@ -8495,7 +8544,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>299</v>
       </c>
@@ -8521,7 +8570,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>302</v>
       </c>
@@ -8547,7 +8596,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>305</v>
       </c>
@@ -8573,7 +8622,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>308</v>
       </c>
@@ -8599,7 +8648,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>311</v>
       </c>
@@ -8625,7 +8674,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>314</v>
       </c>
@@ -8651,7 +8700,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>317</v>
       </c>
@@ -8677,7 +8726,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>320</v>
       </c>
@@ -8703,7 +8752,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>323</v>
       </c>
@@ -8729,7 +8778,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>326</v>
       </c>
@@ -8755,7 +8804,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>329</v>
       </c>
@@ -8781,7 +8830,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>332</v>
       </c>
@@ -8807,7 +8856,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>335</v>
       </c>
@@ -8833,7 +8882,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>338</v>
       </c>
@@ -8859,7 +8908,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>341</v>
       </c>
@@ -8885,7 +8934,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>344</v>
       </c>
@@ -8911,7 +8960,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>347</v>
       </c>
@@ -8937,7 +8986,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>350</v>
       </c>
@@ -8963,7 +9012,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>353</v>
       </c>
@@ -8989,7 +9038,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>356</v>
       </c>
@@ -9015,7 +9064,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>359</v>
       </c>
@@ -9041,7 +9090,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>362</v>
       </c>
@@ -9067,7 +9116,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>365</v>
       </c>
@@ -9093,7 +9142,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>368</v>
       </c>
@@ -9119,7 +9168,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:43">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>371</v>
       </c>
@@ -9145,7 +9194,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:43">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>374</v>
       </c>
@@ -9171,7 +9220,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:43">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>377</v>
       </c>
@@ -9197,7 +9246,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="1:43">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>380</v>
       </c>
@@ -9223,7 +9272,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="63" spans="1:43">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>383</v>
       </c>
@@ -9249,7 +9298,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="1:43">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>386</v>
       </c>
@@ -9275,7 +9324,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:43">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>389</v>
       </c>
@@ -9301,7 +9350,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="66" spans="1:43">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>392</v>
       </c>
@@ -9327,7 +9376,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:43">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>395</v>
       </c>
@@ -9353,7 +9402,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="68" spans="1:43">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>398</v>
       </c>
@@ -9379,7 +9428,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="69" spans="1:43">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>401</v>
       </c>
@@ -9405,7 +9454,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="70" spans="1:43">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>404</v>
       </c>
@@ -9431,7 +9480,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" spans="1:43">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>407</v>
       </c>
@@ -9457,7 +9506,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:43">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>410</v>
       </c>
@@ -9483,7 +9532,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="73" spans="1:43">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>413</v>
       </c>
@@ -9509,7 +9558,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="74" spans="1:43">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>416</v>
       </c>
@@ -9535,7 +9584,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="75" spans="1:43">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>419</v>
       </c>
@@ -9561,7 +9610,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="76" spans="1:43">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>422</v>
       </c>
@@ -9587,7 +9636,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="77" spans="1:43">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>425</v>
       </c>
@@ -9613,7 +9662,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="78" spans="1:43">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>428</v>
       </c>
@@ -9639,7 +9688,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="1:43">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>431</v>
       </c>
@@ -9665,7 +9714,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="1:43">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>434</v>
       </c>
@@ -9691,7 +9740,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="81" spans="1:43">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>437</v>
       </c>
@@ -9717,7 +9766,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="1:43">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>440</v>
       </c>
@@ -9743,7 +9792,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="83" spans="1:43">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>443</v>
       </c>
@@ -9769,7 +9818,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="84" spans="1:43">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>446</v>
       </c>
@@ -9795,7 +9844,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="85" spans="1:43">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>449</v>
       </c>
@@ -9821,7 +9870,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="86" spans="1:43">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>452</v>
       </c>
@@ -9847,7 +9896,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="87" spans="1:43">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>455</v>
       </c>
@@ -9873,7 +9922,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="88" spans="1:43">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>458</v>
       </c>
@@ -9899,7 +9948,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="89" spans="1:43">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>461</v>
       </c>
@@ -9925,7 +9974,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="90" spans="1:43">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>464</v>
       </c>
@@ -9951,7 +10000,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="91" spans="1:43">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>467</v>
       </c>
@@ -9977,7 +10026,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="92" spans="1:43">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>470</v>
       </c>
@@ -10003,7 +10052,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="93" spans="1:43">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>473</v>
       </c>
@@ -10029,7 +10078,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="94" spans="1:43">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>476</v>
       </c>
@@ -10055,7 +10104,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="95" spans="1:43">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>479</v>
       </c>
@@ -10081,7 +10130,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="96" spans="1:43">
+    <row r="96" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>482</v>
       </c>
@@ -10107,7 +10156,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="97" spans="1:43">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>485</v>
       </c>
@@ -10133,7 +10182,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="98" spans="1:43">
+    <row r="98" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>488</v>
       </c>
@@ -10159,7 +10208,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="99" spans="1:43">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>491</v>
       </c>
@@ -10185,7 +10234,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="100" spans="1:43">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>494</v>
       </c>
@@ -10211,7 +10260,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="101" spans="1:43">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>497</v>
       </c>
@@ -10237,7 +10286,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="102" spans="1:43">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>500</v>
       </c>
@@ -10263,7 +10312,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="103" spans="1:43">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>503</v>
       </c>
@@ -10289,7 +10338,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="104" spans="1:43">
+    <row r="104" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>506</v>
       </c>
@@ -10315,7 +10364,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:43">
+    <row r="105" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>509</v>
       </c>
@@ -10341,7 +10390,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="106" spans="1:43">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>512</v>
       </c>
@@ -10367,7 +10416,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="107" spans="1:43">
+    <row r="107" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>515</v>
       </c>
@@ -10393,7 +10442,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="108" spans="1:43">
+    <row r="108" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>518</v>
       </c>
@@ -10419,7 +10468,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="109" spans="1:43">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>521</v>
       </c>
@@ -10445,7 +10494,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:43">
+    <row r="110" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>524</v>
       </c>
@@ -10471,7 +10520,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="111" spans="1:43">
+    <row r="111" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>527</v>
       </c>
@@ -10497,7 +10546,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:43">
+    <row r="112" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>530</v>
       </c>
@@ -10523,7 +10572,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="113" spans="1:43">
+    <row r="113" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>533</v>
       </c>
@@ -10549,7 +10598,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="114" spans="1:43">
+    <row r="114" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>536</v>
       </c>
@@ -10575,7 +10624,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="115" spans="1:43">
+    <row r="115" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>539</v>
       </c>
@@ -10601,7 +10650,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="116" spans="1:43">
+    <row r="116" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>542</v>
       </c>
@@ -10627,7 +10676,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="1:43">
+    <row r="117" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>545</v>
       </c>
@@ -10653,7 +10702,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="118" spans="1:43">
+    <row r="118" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>548</v>
       </c>
@@ -10679,7 +10728,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="119" spans="1:43">
+    <row r="119" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>551</v>
       </c>
@@ -10705,7 +10754,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="120" spans="1:43">
+    <row r="120" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>554</v>
       </c>
@@ -10731,7 +10780,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="121" spans="1:43">
+    <row r="121" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>557</v>
       </c>
@@ -10757,7 +10806,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="122" spans="1:43">
+    <row r="122" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>560</v>
       </c>
@@ -10783,7 +10832,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="123" spans="1:43">
+    <row r="123" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>563</v>
       </c>
@@ -10809,7 +10858,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="124" spans="1:43">
+    <row r="124" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>566</v>
       </c>
@@ -10835,7 +10884,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="125" spans="1:43">
+    <row r="125" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>569</v>
       </c>
@@ -10861,7 +10910,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="126" spans="1:43">
+    <row r="126" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>572</v>
       </c>
@@ -10887,7 +10936,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="127" spans="1:43">
+    <row r="127" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>575</v>
       </c>
@@ -10913,7 +10962,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="128" spans="1:43">
+    <row r="128" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>578</v>
       </c>
@@ -10939,7 +10988,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="129" spans="1:43">
+    <row r="129" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>581</v>
       </c>
@@ -10965,7 +11014,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="130" spans="1:43">
+    <row r="130" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>584</v>
       </c>
@@ -10991,7 +11040,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="131" spans="1:43">
+    <row r="131" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>587</v>
       </c>
@@ -11017,7 +11066,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="132" spans="1:43">
+    <row r="132" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>590</v>
       </c>
@@ -11043,7 +11092,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="133" spans="1:43">
+    <row r="133" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>593</v>
       </c>
@@ -11069,7 +11118,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="134" spans="1:43">
+    <row r="134" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>596</v>
       </c>
@@ -11095,7 +11144,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="135" spans="1:43">
+    <row r="135" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>599</v>
       </c>
@@ -11121,7 +11170,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="136" spans="1:43">
+    <row r="136" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>602</v>
       </c>
@@ -11147,7 +11196,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="137" spans="1:43">
+    <row r="137" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>605</v>
       </c>
@@ -11173,7 +11222,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="138" spans="1:43">
+    <row r="138" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>608</v>
       </c>
@@ -11199,7 +11248,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="139" spans="1:43">
+    <row r="139" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>611</v>
       </c>
@@ -11225,7 +11274,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="140" spans="1:43">
+    <row r="140" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>614</v>
       </c>
@@ -11251,7 +11300,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="141" spans="1:43">
+    <row r="141" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>617</v>
       </c>
@@ -11277,7 +11326,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="142" spans="1:43">
+    <row r="142" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>620</v>
       </c>
@@ -11303,7 +11352,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="143" spans="1:43">
+    <row r="143" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>623</v>
       </c>
@@ -11329,7 +11378,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="144" spans="1:43">
+    <row r="144" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>626</v>
       </c>
@@ -11355,7 +11404,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="145" spans="1:43">
+    <row r="145" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>629</v>
       </c>
@@ -11381,7 +11430,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="146" spans="1:43">
+    <row r="146" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>632</v>
       </c>
@@ -11407,7 +11456,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="147" spans="1:43">
+    <row r="147" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>635</v>
       </c>
@@ -11433,7 +11482,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="148" spans="1:43">
+    <row r="148" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>638</v>
       </c>
@@ -11459,7 +11508,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="149" spans="1:43">
+    <row r="149" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>641</v>
       </c>
@@ -11485,7 +11534,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="150" spans="1:43">
+    <row r="150" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>644</v>
       </c>
@@ -11511,7 +11560,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="151" spans="1:43">
+    <row r="151" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>647</v>
       </c>
@@ -11537,7 +11586,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="152" spans="1:43">
+    <row r="152" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>650</v>
       </c>
@@ -11563,7 +11612,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="153" spans="1:43">
+    <row r="153" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>653</v>
       </c>
@@ -11589,7 +11638,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="154" spans="1:43">
+    <row r="154" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>656</v>
       </c>
@@ -11615,7 +11664,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="155" spans="1:43">
+    <row r="155" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>659</v>
       </c>
@@ -11641,7 +11690,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="156" spans="1:43">
+    <row r="156" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>662</v>
       </c>
@@ -11667,7 +11716,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="157" spans="1:43">
+    <row r="157" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>665</v>
       </c>
@@ -11693,7 +11742,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="158" spans="1:43">
+    <row r="158" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>668</v>
       </c>
@@ -11719,7 +11768,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="159" spans="1:43">
+    <row r="159" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>671</v>
       </c>
@@ -11745,7 +11794,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="160" spans="1:43">
+    <row r="160" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>674</v>
       </c>
@@ -11771,7 +11820,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="161" spans="1:43">
+    <row r="161" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>677</v>
       </c>
@@ -11797,7 +11846,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="162" spans="1:43">
+    <row r="162" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>680</v>
       </c>
@@ -11823,7 +11872,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="163" spans="1:43">
+    <row r="163" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>683</v>
       </c>
@@ -11849,7 +11898,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="164" spans="1:43">
+    <row r="164" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>686</v>
       </c>
@@ -11875,7 +11924,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="165" spans="1:43">
+    <row r="165" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>689</v>
       </c>
@@ -11901,7 +11950,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="166" spans="1:43">
+    <row r="166" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>692</v>
       </c>
@@ -11927,7 +11976,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="167" spans="1:43">
+    <row r="167" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>695</v>
       </c>
@@ -11953,7 +12002,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="168" spans="1:43">
+    <row r="168" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>698</v>
       </c>
@@ -11979,7 +12028,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="169" spans="1:43">
+    <row r="169" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>701</v>
       </c>
@@ -12005,7 +12054,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="170" spans="1:43">
+    <row r="170" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>704</v>
       </c>
@@ -12031,7 +12080,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="171" spans="1:43">
+    <row r="171" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>707</v>
       </c>
@@ -12057,7 +12106,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="172" spans="1:43">
+    <row r="172" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>710</v>
       </c>
@@ -12083,7 +12132,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="173" spans="1:43">
+    <row r="173" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>713</v>
       </c>
@@ -12109,7 +12158,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="174" spans="1:43">
+    <row r="174" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>716</v>
       </c>
@@ -12135,7 +12184,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="175" spans="1:43">
+    <row r="175" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>719</v>
       </c>
@@ -12161,7 +12210,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="176" spans="1:43">
+    <row r="176" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>722</v>
       </c>
@@ -12187,7 +12236,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="177" spans="1:43">
+    <row r="177" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>725</v>
       </c>
@@ -12213,7 +12262,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="178" spans="1:43">
+    <row r="178" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>728</v>
       </c>
@@ -12239,7 +12288,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="179" spans="1:43">
+    <row r="179" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>731</v>
       </c>
@@ -12265,7 +12314,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="180" spans="1:43">
+    <row r="180" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>734</v>
       </c>
@@ -12291,7 +12340,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="181" spans="1:43">
+    <row r="181" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>737</v>
       </c>
@@ -12317,7 +12366,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="182" spans="1:43">
+    <row r="182" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>740</v>
       </c>
@@ -12343,7 +12392,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="183" spans="1:43">
+    <row r="183" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>743</v>
       </c>
@@ -12369,7 +12418,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="184" spans="1:43">
+    <row r="184" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>746</v>
       </c>
@@ -12395,7 +12444,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="185" spans="1:43">
+    <row r="185" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>749</v>
       </c>
@@ -12421,7 +12470,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="186" spans="1:43">
+    <row r="186" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>752</v>
       </c>
@@ -12447,7 +12496,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="187" spans="1:43">
+    <row r="187" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>755</v>
       </c>
@@ -12473,7 +12522,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="188" spans="1:43">
+    <row r="188" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>758</v>
       </c>
@@ -12499,7 +12548,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="189" spans="1:43">
+    <row r="189" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>761</v>
       </c>
@@ -12525,7 +12574,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="190" spans="1:43">
+    <row r="190" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>764</v>
       </c>
@@ -12551,7 +12600,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="191" spans="1:43">
+    <row r="191" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>767</v>
       </c>
@@ -12577,7 +12626,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="192" spans="1:43">
+    <row r="192" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>770</v>
       </c>
@@ -12603,7 +12652,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="193" spans="1:43">
+    <row r="193" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>773</v>
       </c>
@@ -12629,7 +12678,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="194" spans="1:43">
+    <row r="194" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>776</v>
       </c>
@@ -12655,7 +12704,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="195" spans="1:43">
+    <row r="195" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>779</v>
       </c>
@@ -12681,7 +12730,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="196" spans="1:43">
+    <row r="196" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>782</v>
       </c>
@@ -12707,7 +12756,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="197" spans="1:43">
+    <row r="197" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>785</v>
       </c>
@@ -12733,7 +12782,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="198" spans="1:43">
+    <row r="198" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>788</v>
       </c>
@@ -12759,7 +12808,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="199" spans="1:43">
+    <row r="199" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>791</v>
       </c>
@@ -12785,7 +12834,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="200" spans="1:43">
+    <row r="200" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>794</v>
       </c>
@@ -12811,7 +12860,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="201" spans="1:43">
+    <row r="201" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>797</v>
       </c>
@@ -12837,7 +12886,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="202" spans="1:43">
+    <row r="202" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>800</v>
       </c>
@@ -12863,7 +12912,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="203" spans="1:43">
+    <row r="203" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>803</v>
       </c>
@@ -12889,7 +12938,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="204" spans="1:43">
+    <row r="204" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>806</v>
       </c>
@@ -12915,7 +12964,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="205" spans="1:43">
+    <row r="205" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>809</v>
       </c>
@@ -12941,7 +12990,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="206" spans="1:43">
+    <row r="206" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>812</v>
       </c>
@@ -12967,7 +13016,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="207" spans="1:43">
+    <row r="207" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>815</v>
       </c>
@@ -12993,7 +13042,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="208" spans="1:43">
+    <row r="208" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>818</v>
       </c>
@@ -13019,7 +13068,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="209" spans="1:43">
+    <row r="209" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>821</v>
       </c>
@@ -13045,7 +13094,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="210" spans="1:43">
+    <row r="210" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>824</v>
       </c>
@@ -13071,7 +13120,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="211" spans="1:43">
+    <row r="211" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>827</v>
       </c>
@@ -13097,7 +13146,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="212" spans="1:43">
+    <row r="212" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>830</v>
       </c>
@@ -13123,7 +13172,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="213" spans="1:43">
+    <row r="213" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>833</v>
       </c>
@@ -13149,7 +13198,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="214" spans="1:43">
+    <row r="214" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>836</v>
       </c>
@@ -13175,7 +13224,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:43">
+    <row r="215" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>839</v>
       </c>
@@ -13201,7 +13250,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:43">
+    <row r="216" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>842</v>
       </c>
@@ -13227,7 +13276,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:43">
+    <row r="217" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>845</v>
       </c>
@@ -13253,7 +13302,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="218" spans="1:43">
+    <row r="218" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>848</v>
       </c>
@@ -13279,7 +13328,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="219" spans="1:43">
+    <row r="219" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>851</v>
       </c>
@@ -13305,7 +13354,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="220" spans="1:43">
+    <row r="220" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>854</v>
       </c>
@@ -13331,7 +13380,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="221" spans="1:43">
+    <row r="221" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>857</v>
       </c>
@@ -13357,7 +13406,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="222" spans="1:43">
+    <row r="222" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>860</v>
       </c>
@@ -13383,7 +13432,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="223" spans="1:43">
+    <row r="223" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>863</v>
       </c>
@@ -13409,7 +13458,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="224" spans="1:43">
+    <row r="224" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>866</v>
       </c>
@@ -13435,7 +13484,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="225" spans="1:43">
+    <row r="225" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>869</v>
       </c>
@@ -13461,7 +13510,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="226" spans="1:43">
+    <row r="226" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>872</v>
       </c>
@@ -13493,93 +13542,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>875</v>
       </c>
@@ -13812,7 +13859,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -14045,7 +14092,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -14260,7 +14307,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>979</v>
       </c>
@@ -14493,12 +14540,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1040</v>
       </c>
@@ -14515,28 +14562,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="154.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="67.7109375" customWidth="1"/>
-    <col min="8" max="8" width="58.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="141.7109375" customWidth="1"/>
-    <col min="11" max="11" width="62.7109375" customWidth="1"/>
-    <col min="12" max="12" width="62.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="154.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="67.6640625" customWidth="1"/>
+    <col min="8" max="8" width="58.6640625" customWidth="1"/>
+    <col min="9" max="10" width="141.6640625" customWidth="1"/>
+    <col min="11" max="12" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -14574,7 +14619,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -14612,7 +14657,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -14644,7 +14689,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>190</v>
       </c>
@@ -14682,12 +14727,12 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>214</v>
       </c>
@@ -14701,67 +14746,65 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="154.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="154.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1079</v>
       </c>
@@ -14916,7 +14959,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -15071,7 +15114,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -15220,7 +15263,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1169</v>
       </c>
@@ -15375,12 +15418,12 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1220</v>
       </c>
@@ -15397,25 +15440,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="959.7109375" customWidth="1"/>
-    <col min="4" max="4" width="135.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="959.6640625" customWidth="1"/>
+    <col min="4" max="4" width="135.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1222</v>
       </c>
@@ -15444,7 +15486,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1231</v>
       </c>
@@ -15473,7 +15515,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1240</v>
       </c>
@@ -15502,7 +15544,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1249</v>
       </c>
@@ -15531,12 +15573,12 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1258</v>
       </c>
@@ -15562,28 +15604,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1264</v>
       </c>
@@ -15621,7 +15663,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1276</v>
       </c>
@@ -15659,7 +15701,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1286</v>
       </c>
@@ -15697,7 +15739,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1297</v>
       </c>
@@ -15735,12 +15777,12 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1309</v>
       </c>
@@ -15757,147 +15799,147 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1342</v>
       </c>
@@ -15908,46 +15950,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD447"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1343</v>
       </c>
@@ -16039,7 +16079,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1355</v>
       </c>
@@ -16131,7 +16171,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1364</v>
       </c>
@@ -16211,7 +16251,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1374</v>
       </c>
@@ -16303,12 +16343,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1386</v>
       </c>
@@ -16331,7 +16371,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1391</v>
       </c>
@@ -16354,7 +16394,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1393</v>
       </c>
@@ -16377,7 +16417,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1395</v>
       </c>
@@ -16400,7 +16440,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1396</v>
       </c>
@@ -16423,7 +16463,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1398</v>
       </c>
@@ -16446,7 +16486,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1399</v>
       </c>
@@ -16469,7 +16509,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1401</v>
       </c>
@@ -16492,7 +16532,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1402</v>
       </c>
@@ -16515,7 +16555,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1404</v>
       </c>
@@ -16538,7 +16578,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1405</v>
       </c>
@@ -16561,7 +16601,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1407</v>
       </c>
@@ -16584,7 +16624,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1408</v>
       </c>
@@ -16607,7 +16647,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1410</v>
       </c>
@@ -16630,7 +16670,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1411</v>
       </c>
@@ -16653,7 +16693,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1413</v>
       </c>
@@ -16676,7 +16716,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1414</v>
       </c>
@@ -16699,7 +16739,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1416</v>
       </c>
@@ -16722,7 +16762,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1417</v>
       </c>
@@ -16745,7 +16785,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1419</v>
       </c>
@@ -16768,7 +16808,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1420</v>
       </c>
@@ -16791,7 +16831,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1422</v>
       </c>
@@ -16814,7 +16854,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1423</v>
       </c>
@@ -16837,7 +16877,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1425</v>
       </c>
@@ -16860,7 +16900,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1426</v>
       </c>
@@ -16883,7 +16923,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1428</v>
       </c>
@@ -16906,7 +16946,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1429</v>
       </c>
@@ -16929,7 +16969,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1431</v>
       </c>
@@ -16952,7 +16992,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1432</v>
       </c>
@@ -16975,7 +17015,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1434</v>
       </c>
@@ -16998,7 +17038,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1435</v>
       </c>
@@ -17021,7 +17061,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1437</v>
       </c>
@@ -17044,7 +17084,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1438</v>
       </c>
@@ -17067,7 +17107,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1440</v>
       </c>
@@ -17090,7 +17130,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1441</v>
       </c>
@@ -17113,7 +17153,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1443</v>
       </c>
@@ -17136,7 +17176,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1444</v>
       </c>
@@ -17159,7 +17199,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1446</v>
       </c>
@@ -17182,7 +17222,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1447</v>
       </c>
@@ -17205,7 +17245,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1449</v>
       </c>
@@ -17228,7 +17268,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1450</v>
       </c>
@@ -17251,7 +17291,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1452</v>
       </c>
@@ -17274,7 +17314,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1453</v>
       </c>
@@ -17297,7 +17337,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1455</v>
       </c>
@@ -17320,7 +17360,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1456</v>
       </c>
@@ -17343,7 +17383,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1458</v>
       </c>
@@ -17366,7 +17406,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1459</v>
       </c>
@@ -17389,7 +17429,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1461</v>
       </c>
@@ -17412,7 +17452,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1462</v>
       </c>
@@ -17435,7 +17475,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1464</v>
       </c>
@@ -17458,7 +17498,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1465</v>
       </c>
@@ -17481,7 +17521,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1467</v>
       </c>
@@ -17504,7 +17544,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1468</v>
       </c>
@@ -17527,7 +17567,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1470</v>
       </c>
@@ -17550,7 +17590,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1471</v>
       </c>
@@ -17573,7 +17613,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1473</v>
       </c>
@@ -17596,7 +17636,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1474</v>
       </c>
@@ -17619,7 +17659,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1476</v>
       </c>
@@ -17642,7 +17682,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1477</v>
       </c>
@@ -17665,7 +17705,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1479</v>
       </c>
@@ -17688,7 +17728,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1480</v>
       </c>
@@ -17711,7 +17751,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1482</v>
       </c>
@@ -17734,7 +17774,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1483</v>
       </c>
@@ -17757,7 +17797,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1485</v>
       </c>
@@ -17780,7 +17820,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1486</v>
       </c>
@@ -17803,7 +17843,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1488</v>
       </c>
@@ -17826,7 +17866,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1489</v>
       </c>
@@ -17849,7 +17889,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1491</v>
       </c>
@@ -17872,7 +17912,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1492</v>
       </c>
@@ -17895,7 +17935,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1494</v>
       </c>
@@ -17918,7 +17958,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1495</v>
       </c>
@@ -17941,7 +17981,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1497</v>
       </c>
@@ -17964,7 +18004,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1498</v>
       </c>
@@ -17987,7 +18027,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1500</v>
       </c>
@@ -18010,7 +18050,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1501</v>
       </c>
@@ -18033,7 +18073,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1503</v>
       </c>
@@ -18056,7 +18096,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1504</v>
       </c>
@@ -18079,7 +18119,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1506</v>
       </c>
@@ -18102,7 +18142,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1507</v>
       </c>
@@ -18125,7 +18165,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1509</v>
       </c>
@@ -18148,7 +18188,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1510</v>
       </c>
@@ -18171,7 +18211,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1512</v>
       </c>
@@ -18194,7 +18234,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1513</v>
       </c>
@@ -18217,7 +18257,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1515</v>
       </c>
@@ -18240,7 +18280,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1516</v>
       </c>
@@ -18263,7 +18303,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1518</v>
       </c>
@@ -18286,7 +18326,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1519</v>
       </c>
@@ -18309,7 +18349,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1521</v>
       </c>
@@ -18332,7 +18372,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1522</v>
       </c>
@@ -18355,7 +18395,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1524</v>
       </c>
@@ -18378,7 +18418,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1525</v>
       </c>
@@ -18401,7 +18441,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1527</v>
       </c>
@@ -18424,7 +18464,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1528</v>
       </c>
@@ -18447,7 +18487,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1530</v>
       </c>
@@ -18470,7 +18510,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1531</v>
       </c>
@@ -18493,7 +18533,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1533</v>
       </c>
@@ -18516,7 +18556,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1534</v>
       </c>
@@ -18539,7 +18579,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1536</v>
       </c>
@@ -18562,7 +18602,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1537</v>
       </c>
@@ -18585,7 +18625,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1539</v>
       </c>
@@ -18608,7 +18648,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1540</v>
       </c>
@@ -18631,7 +18671,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1542</v>
       </c>
@@ -18654,7 +18694,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1543</v>
       </c>
@@ -18677,7 +18717,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1545</v>
       </c>
@@ -18700,7 +18740,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1546</v>
       </c>
@@ -18723,7 +18763,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1548</v>
       </c>
@@ -18746,7 +18786,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1549</v>
       </c>
@@ -18769,7 +18809,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1551</v>
       </c>
@@ -18792,7 +18832,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1552</v>
       </c>
@@ -18815,7 +18855,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1554</v>
       </c>
@@ -18838,7 +18878,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1555</v>
       </c>
@@ -18861,7 +18901,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1557</v>
       </c>
@@ -18884,7 +18924,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1558</v>
       </c>
@@ -18907,7 +18947,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1560</v>
       </c>
@@ -18930,7 +18970,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1561</v>
       </c>
@@ -18953,7 +18993,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1563</v>
       </c>
@@ -18976,7 +19016,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1564</v>
       </c>
@@ -18999,7 +19039,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1566</v>
       </c>
@@ -19022,7 +19062,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1567</v>
       </c>
@@ -19045,7 +19085,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1569</v>
       </c>
@@ -19068,7 +19108,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1570</v>
       </c>
@@ -19091,7 +19131,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1572</v>
       </c>
@@ -19114,7 +19154,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1573</v>
       </c>
@@ -19137,7 +19177,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1575</v>
       </c>
@@ -19160,7 +19200,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1576</v>
       </c>
@@ -19183,7 +19223,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1578</v>
       </c>
@@ -19206,7 +19246,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1579</v>
       </c>
@@ -19229,7 +19269,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1581</v>
       </c>
@@ -19252,7 +19292,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1582</v>
       </c>
@@ -19275,7 +19315,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1584</v>
       </c>
@@ -19298,7 +19338,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1585</v>
       </c>
@@ -19321,7 +19361,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1587</v>
       </c>
@@ -19344,7 +19384,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1588</v>
       </c>
@@ -19367,7 +19407,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1590</v>
       </c>
@@ -19390,7 +19430,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1591</v>
       </c>
@@ -19413,7 +19453,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1593</v>
       </c>
@@ -19436,7 +19476,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1594</v>
       </c>
@@ -19459,7 +19499,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1596</v>
       </c>
@@ -19482,7 +19522,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1597</v>
       </c>
@@ -19505,7 +19545,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1599</v>
       </c>
@@ -19528,7 +19568,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1600</v>
       </c>
@@ -19551,7 +19591,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1602</v>
       </c>
@@ -19574,7 +19614,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1603</v>
       </c>
@@ -19597,7 +19637,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1605</v>
       </c>
@@ -19620,7 +19660,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1606</v>
       </c>
@@ -19643,7 +19683,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1608</v>
       </c>
@@ -19666,7 +19706,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1609</v>
       </c>
@@ -19689,7 +19729,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1611</v>
       </c>
@@ -19712,7 +19752,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1612</v>
       </c>
@@ -19735,7 +19775,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1614</v>
       </c>
@@ -19758,7 +19798,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1615</v>
       </c>
@@ -19781,7 +19821,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1617</v>
       </c>
@@ -19804,7 +19844,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1618</v>
       </c>
@@ -19827,7 +19867,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1620</v>
       </c>
@@ -19850,7 +19890,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1621</v>
       </c>
@@ -19873,7 +19913,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1623</v>
       </c>
@@ -19896,7 +19936,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1624</v>
       </c>
@@ -19919,7 +19959,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1626</v>
       </c>
@@ -19942,7 +19982,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1627</v>
       </c>
@@ -19965,7 +20005,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1629</v>
       </c>
@@ -19988,7 +20028,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1630</v>
       </c>
@@ -20011,7 +20051,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1632</v>
       </c>
@@ -20034,7 +20074,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1633</v>
       </c>
@@ -20057,7 +20097,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1635</v>
       </c>
@@ -20080,7 +20120,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1636</v>
       </c>
@@ -20103,7 +20143,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1638</v>
       </c>
@@ -20126,7 +20166,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1639</v>
       </c>
@@ -20149,7 +20189,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1641</v>
       </c>
@@ -20172,7 +20212,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1642</v>
       </c>
@@ -20195,7 +20235,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1644</v>
       </c>
@@ -20218,7 +20258,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1645</v>
       </c>
@@ -20241,7 +20281,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1647</v>
       </c>
@@ -20264,7 +20304,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1648</v>
       </c>
@@ -20287,7 +20327,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1650</v>
       </c>
@@ -20310,7 +20350,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1651</v>
       </c>
@@ -20333,7 +20373,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1653</v>
       </c>
@@ -20356,7 +20396,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1654</v>
       </c>
@@ -20379,7 +20419,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1656</v>
       </c>
@@ -20402,7 +20442,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1657</v>
       </c>
@@ -20425,7 +20465,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1659</v>
       </c>
@@ -20448,7 +20488,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1660</v>
       </c>
@@ -20471,7 +20511,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1662</v>
       </c>
@@ -20494,7 +20534,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1663</v>
       </c>
@@ -20517,7 +20557,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1665</v>
       </c>
@@ -20540,7 +20580,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1666</v>
       </c>
@@ -20563,7 +20603,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1668</v>
       </c>
@@ -20586,7 +20626,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1669</v>
       </c>
@@ -20609,7 +20649,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1671</v>
       </c>
@@ -20632,7 +20672,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1672</v>
       </c>
@@ -20655,7 +20695,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1674</v>
       </c>
@@ -20678,7 +20718,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1675</v>
       </c>
@@ -20701,7 +20741,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1677</v>
       </c>
@@ -20724,7 +20764,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1678</v>
       </c>
@@ -20747,7 +20787,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1680</v>
       </c>
@@ -20770,7 +20810,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1681</v>
       </c>
@@ -20793,7 +20833,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1683</v>
       </c>
@@ -20816,7 +20856,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1684</v>
       </c>
@@ -20839,7 +20879,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1686</v>
       </c>
@@ -20862,7 +20902,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1687</v>
       </c>
@@ -20885,7 +20925,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1689</v>
       </c>
@@ -20908,7 +20948,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1690</v>
       </c>
@@ -20931,7 +20971,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1692</v>
       </c>
@@ -20954,7 +20994,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1693</v>
       </c>
@@ -20977,7 +21017,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1695</v>
       </c>
@@ -21000,7 +21040,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1696</v>
       </c>
@@ -21023,7 +21063,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1698</v>
       </c>
@@ -21046,7 +21086,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1699</v>
       </c>
@@ -21069,7 +21109,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1701</v>
       </c>
@@ -21092,7 +21132,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1702</v>
       </c>
@@ -21115,7 +21155,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1704</v>
       </c>
@@ -21138,7 +21178,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1705</v>
       </c>
@@ -21161,7 +21201,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1707</v>
       </c>
@@ -21184,7 +21224,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1708</v>
       </c>
@@ -21207,7 +21247,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1710</v>
       </c>
@@ -21230,7 +21270,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1711</v>
       </c>
@@ -21253,7 +21293,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1713</v>
       </c>
@@ -21276,7 +21316,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1714</v>
       </c>
@@ -21299,7 +21339,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1716</v>
       </c>
@@ -21322,7 +21362,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1717</v>
       </c>
@@ -21345,7 +21385,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1719</v>
       </c>
@@ -21368,7 +21408,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1720</v>
       </c>
@@ -21391,7 +21431,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1722</v>
       </c>
@@ -21414,7 +21454,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1723</v>
       </c>
@@ -21437,7 +21477,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>1725</v>
       </c>
@@ -21460,7 +21500,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1726</v>
       </c>
@@ -21483,7 +21523,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1728</v>
       </c>
@@ -21506,7 +21546,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1729</v>
       </c>
@@ -21529,7 +21569,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1731</v>
       </c>
@@ -21552,7 +21592,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>1732</v>
       </c>
@@ -21575,7 +21615,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1734</v>
       </c>
@@ -21598,7 +21638,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1735</v>
       </c>
@@ -21621,7 +21661,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1737</v>
       </c>
@@ -21644,7 +21684,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1738</v>
       </c>
@@ -21667,7 +21707,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1740</v>
       </c>
@@ -21690,7 +21730,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1741</v>
       </c>
@@ -21713,7 +21753,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1743</v>
       </c>
@@ -21736,7 +21776,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1744</v>
       </c>
@@ -21759,7 +21799,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1746</v>
       </c>
@@ -21782,7 +21822,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1747</v>
       </c>
@@ -21805,7 +21845,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1749</v>
       </c>
@@ -21828,7 +21868,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1750</v>
       </c>
@@ -21851,7 +21891,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1752</v>
       </c>
@@ -21874,7 +21914,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1753</v>
       </c>
@@ -21897,7 +21937,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1755</v>
       </c>
@@ -21920,7 +21960,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1756</v>
       </c>
@@ -21943,7 +21983,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1758</v>
       </c>
@@ -21966,7 +22006,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1759</v>
       </c>
@@ -21989,7 +22029,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>1761</v>
       </c>
@@ -22012,7 +22052,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>1762</v>
       </c>
@@ -22035,7 +22075,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1764</v>
       </c>
@@ -22058,7 +22098,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1765</v>
       </c>
@@ -22081,7 +22121,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>1767</v>
       </c>
@@ -22104,7 +22144,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1768</v>
       </c>
@@ -22127,7 +22167,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1770</v>
       </c>
@@ -22150,7 +22190,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>1771</v>
       </c>
@@ -22173,7 +22213,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>1773</v>
       </c>
@@ -22196,7 +22236,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>1774</v>
       </c>
@@ -22219,7 +22259,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1776</v>
       </c>
@@ -22242,7 +22282,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1777</v>
       </c>
@@ -22265,7 +22305,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1779</v>
       </c>
@@ -22288,7 +22328,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1780</v>
       </c>
@@ -22311,7 +22351,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1782</v>
       </c>
@@ -22334,7 +22374,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1783</v>
       </c>
@@ -22357,7 +22397,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1785</v>
       </c>
@@ -22380,7 +22420,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1786</v>
       </c>
@@ -22403,7 +22443,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1788</v>
       </c>
@@ -22426,7 +22466,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1789</v>
       </c>
@@ -22449,7 +22489,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1791</v>
       </c>
@@ -22472,7 +22512,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1792</v>
       </c>
@@ -22495,7 +22535,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1794</v>
       </c>
@@ -22518,7 +22558,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1795</v>
       </c>
@@ -22541,7 +22581,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1797</v>
       </c>
@@ -22564,7 +22604,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1798</v>
       </c>
@@ -22587,7 +22627,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1800</v>
       </c>
@@ -22610,7 +22650,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1801</v>
       </c>
@@ -22633,7 +22673,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1803</v>
       </c>
@@ -22656,7 +22696,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1804</v>
       </c>
@@ -22679,7 +22719,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1806</v>
       </c>
@@ -22702,7 +22742,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1807</v>
       </c>
@@ -22725,7 +22765,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1809</v>
       </c>
@@ -22748,7 +22788,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1810</v>
       </c>
@@ -22771,7 +22811,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1812</v>
       </c>
@@ -22794,7 +22834,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1813</v>
       </c>
@@ -22817,7 +22857,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1815</v>
       </c>
@@ -22840,7 +22880,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1816</v>
       </c>
@@ -22863,7 +22903,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1818</v>
       </c>
@@ -22886,7 +22926,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1819</v>
       </c>
@@ -22909,7 +22949,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1821</v>
       </c>
@@ -22932,7 +22972,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1822</v>
       </c>
@@ -22955,7 +22995,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1824</v>
       </c>
@@ -22978,7 +23018,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1825</v>
       </c>
@@ -23001,7 +23041,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1827</v>
       </c>
@@ -23024,7 +23064,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1828</v>
       </c>
@@ -23047,7 +23087,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1830</v>
       </c>
@@ -23070,7 +23110,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1831</v>
       </c>
@@ -23093,7 +23133,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1833</v>
       </c>
@@ -23116,7 +23156,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="302" spans="1:14">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1834</v>
       </c>
@@ -23139,7 +23179,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="303" spans="1:14">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1836</v>
       </c>
@@ -23162,7 +23202,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1837</v>
       </c>
@@ -23185,7 +23225,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="305" spans="1:14">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1839</v>
       </c>
@@ -23208,7 +23248,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="306" spans="1:14">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1840</v>
       </c>
@@ -23231,7 +23271,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1842</v>
       </c>
@@ -23254,7 +23294,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="308" spans="1:14">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1843</v>
       </c>
@@ -23277,7 +23317,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="309" spans="1:14">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1845</v>
       </c>
@@ -23300,7 +23340,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="310" spans="1:14">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1846</v>
       </c>
@@ -23323,7 +23363,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="311" spans="1:14">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1848</v>
       </c>
@@ -23346,7 +23386,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="312" spans="1:14">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1849</v>
       </c>
@@ -23369,7 +23409,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="313" spans="1:14">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1851</v>
       </c>
@@ -23392,7 +23432,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="314" spans="1:14">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1852</v>
       </c>
@@ -23415,7 +23455,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="315" spans="1:14">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1854</v>
       </c>
@@ -23438,7 +23478,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="316" spans="1:14">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1855</v>
       </c>
@@ -23461,7 +23501,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="317" spans="1:14">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1857</v>
       </c>
@@ -23484,7 +23524,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="318" spans="1:14">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1858</v>
       </c>
@@ -23507,7 +23547,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="319" spans="1:14">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1860</v>
       </c>
@@ -23530,7 +23570,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="320" spans="1:14">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1861</v>
       </c>
@@ -23553,7 +23593,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="321" spans="1:14">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1863</v>
       </c>
@@ -23576,7 +23616,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="322" spans="1:14">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1864</v>
       </c>
@@ -23599,7 +23639,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="323" spans="1:14">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1866</v>
       </c>
@@ -23622,7 +23662,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="324" spans="1:14">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1867</v>
       </c>
@@ -23645,7 +23685,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="325" spans="1:14">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1869</v>
       </c>
@@ -23668,7 +23708,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="326" spans="1:14">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1870</v>
       </c>
@@ -23691,7 +23731,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="327" spans="1:14">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1872</v>
       </c>
@@ -23714,7 +23754,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="328" spans="1:14">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1873</v>
       </c>
@@ -23737,7 +23777,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="329" spans="1:14">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1875</v>
       </c>
@@ -23760,7 +23800,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="330" spans="1:14">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1876</v>
       </c>
@@ -23783,7 +23823,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="331" spans="1:14">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1878</v>
       </c>
@@ -23806,7 +23846,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="332" spans="1:14">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1879</v>
       </c>
@@ -23829,7 +23869,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="333" spans="1:14">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1881</v>
       </c>
@@ -23852,7 +23892,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="334" spans="1:14">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1882</v>
       </c>
@@ -23875,7 +23915,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="335" spans="1:14">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1884</v>
       </c>
@@ -23898,7 +23938,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="336" spans="1:14">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1885</v>
       </c>
@@ -23921,7 +23961,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="337" spans="1:14">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1887</v>
       </c>
@@ -23944,7 +23984,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="338" spans="1:14">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1888</v>
       </c>
@@ -23967,7 +24007,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="339" spans="1:14">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1890</v>
       </c>
@@ -23990,7 +24030,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="340" spans="1:14">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1891</v>
       </c>
@@ -24013,7 +24053,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="341" spans="1:14">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1893</v>
       </c>
@@ -24036,7 +24076,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="342" spans="1:14">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1894</v>
       </c>
@@ -24059,7 +24099,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="343" spans="1:14">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1896</v>
       </c>
@@ -24082,7 +24122,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="344" spans="1:14">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1897</v>
       </c>
@@ -24105,7 +24145,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="345" spans="1:14">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1899</v>
       </c>
@@ -24128,7 +24168,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="346" spans="1:14">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1900</v>
       </c>
@@ -24151,7 +24191,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="347" spans="1:14">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1902</v>
       </c>
@@ -24174,7 +24214,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="348" spans="1:14">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1903</v>
       </c>
@@ -24197,7 +24237,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="349" spans="1:14">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1905</v>
       </c>
@@ -24220,7 +24260,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="350" spans="1:14">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1906</v>
       </c>
@@ -24243,7 +24283,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="351" spans="1:14">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1908</v>
       </c>
@@ -24266,7 +24306,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="352" spans="1:14">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1909</v>
       </c>
@@ -24289,7 +24329,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="353" spans="1:14">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1911</v>
       </c>
@@ -24312,7 +24352,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="354" spans="1:14">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1912</v>
       </c>
@@ -24335,7 +24375,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="355" spans="1:14">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1914</v>
       </c>
@@ -24358,7 +24398,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="356" spans="1:14">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1915</v>
       </c>
@@ -24381,7 +24421,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="357" spans="1:14">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>1917</v>
       </c>
@@ -24404,7 +24444,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="358" spans="1:14">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>1918</v>
       </c>
@@ -24427,7 +24467,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="359" spans="1:14">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>1920</v>
       </c>
@@ -24450,7 +24490,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="360" spans="1:14">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>1921</v>
       </c>
@@ -24473,7 +24513,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="361" spans="1:14">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>1923</v>
       </c>
@@ -24496,7 +24536,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="362" spans="1:14">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>1924</v>
       </c>
@@ -24519,7 +24559,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="363" spans="1:14">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>1926</v>
       </c>
@@ -24542,7 +24582,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="364" spans="1:14">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>1927</v>
       </c>
@@ -24565,7 +24605,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="365" spans="1:14">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>1929</v>
       </c>
@@ -24588,7 +24628,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="366" spans="1:14">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>1930</v>
       </c>
@@ -24611,7 +24651,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="367" spans="1:14">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>1932</v>
       </c>
@@ -24634,7 +24674,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="368" spans="1:14">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>1933</v>
       </c>
@@ -24657,7 +24697,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="369" spans="1:14">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>1935</v>
       </c>
@@ -24680,7 +24720,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="370" spans="1:14">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>1936</v>
       </c>
@@ -24703,7 +24743,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="371" spans="1:14">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>1938</v>
       </c>
@@ -24726,7 +24766,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="372" spans="1:14">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>1939</v>
       </c>
@@ -24749,7 +24789,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="373" spans="1:14">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>1941</v>
       </c>
@@ -24772,7 +24812,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="374" spans="1:14">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1942</v>
       </c>
@@ -24795,7 +24835,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="375" spans="1:14">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1944</v>
       </c>
@@ -24818,7 +24858,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="376" spans="1:14">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1945</v>
       </c>
@@ -24841,7 +24881,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="377" spans="1:14">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1947</v>
       </c>
@@ -24864,7 +24904,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="378" spans="1:14">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>1948</v>
       </c>
@@ -24887,7 +24927,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="379" spans="1:14">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1950</v>
       </c>
@@ -24910,7 +24950,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="380" spans="1:14">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>1951</v>
       </c>
@@ -24933,7 +24973,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="381" spans="1:14">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>1953</v>
       </c>
@@ -24956,7 +24996,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="382" spans="1:14">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1954</v>
       </c>
@@ -24979,7 +25019,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="383" spans="1:14">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1956</v>
       </c>
@@ -25002,7 +25042,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="384" spans="1:14">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>1957</v>
       </c>
@@ -25025,7 +25065,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="385" spans="1:14">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>1959</v>
       </c>
@@ -25048,7 +25088,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="386" spans="1:14">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>1960</v>
       </c>
@@ -25071,7 +25111,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="387" spans="1:14">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>1962</v>
       </c>
@@ -25094,7 +25134,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="388" spans="1:14">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>1963</v>
       </c>
@@ -25117,7 +25157,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="389" spans="1:14">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>1965</v>
       </c>
@@ -25140,7 +25180,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="390" spans="1:14">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>1966</v>
       </c>
@@ -25163,7 +25203,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="391" spans="1:14">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>1968</v>
       </c>
@@ -25186,7 +25226,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="392" spans="1:14">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>1969</v>
       </c>
@@ -25209,7 +25249,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="393" spans="1:14">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>1971</v>
       </c>
@@ -25232,7 +25272,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="394" spans="1:14">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>1972</v>
       </c>
@@ -25255,7 +25295,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="395" spans="1:14">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>1974</v>
       </c>
@@ -25278,7 +25318,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="396" spans="1:14">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>1975</v>
       </c>
@@ -25301,7 +25341,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="397" spans="1:14">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>1977</v>
       </c>
@@ -25324,7 +25364,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="398" spans="1:14">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>1978</v>
       </c>
@@ -25347,7 +25387,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="399" spans="1:14">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>1980</v>
       </c>
@@ -25370,7 +25410,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="400" spans="1:14">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>1981</v>
       </c>
@@ -25393,7 +25433,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="401" spans="1:14">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>1983</v>
       </c>
@@ -25416,7 +25456,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="402" spans="1:14">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>1984</v>
       </c>
@@ -25439,7 +25479,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="403" spans="1:14">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>1986</v>
       </c>
@@ -25462,7 +25502,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="404" spans="1:14">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>1987</v>
       </c>
@@ -25485,7 +25525,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="405" spans="1:14">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>1989</v>
       </c>
@@ -25508,7 +25548,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="406" spans="1:14">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>1990</v>
       </c>
@@ -25531,7 +25571,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="407" spans="1:14">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>1992</v>
       </c>
@@ -25554,7 +25594,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="408" spans="1:14">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>1993</v>
       </c>
@@ -25577,7 +25617,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="409" spans="1:14">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>1995</v>
       </c>
@@ -25600,7 +25640,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="410" spans="1:14">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>1996</v>
       </c>
@@ -25623,7 +25663,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="411" spans="1:14">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>1998</v>
       </c>
@@ -25646,7 +25686,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="412" spans="1:14">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>1999</v>
       </c>
@@ -25669,7 +25709,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="413" spans="1:14">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>2001</v>
       </c>
@@ -25692,7 +25732,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="414" spans="1:14">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>2002</v>
       </c>
@@ -25715,7 +25755,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="415" spans="1:14">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>2004</v>
       </c>
@@ -25738,7 +25778,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="416" spans="1:14">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>2005</v>
       </c>
@@ -25761,7 +25801,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="417" spans="1:14">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>2007</v>
       </c>
@@ -25784,7 +25824,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="418" spans="1:14">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>2008</v>
       </c>
@@ -25807,7 +25847,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="419" spans="1:14">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>2010</v>
       </c>
@@ -25830,7 +25870,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="420" spans="1:14">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>2011</v>
       </c>
@@ -25853,7 +25893,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="421" spans="1:14">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>2013</v>
       </c>
@@ -25876,7 +25916,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="422" spans="1:14">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>2014</v>
       </c>
@@ -25899,7 +25939,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="423" spans="1:14">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>2016</v>
       </c>
@@ -25922,7 +25962,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="424" spans="1:14">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>2017</v>
       </c>
@@ -25945,7 +25985,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="425" spans="1:14">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>2019</v>
       </c>
@@ -25968,7 +26008,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="426" spans="1:14">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>2020</v>
       </c>
@@ -25991,7 +26031,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="427" spans="1:14">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>2022</v>
       </c>
@@ -26014,7 +26054,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="428" spans="1:14">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>2023</v>
       </c>
@@ -26037,7 +26077,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="429" spans="1:14">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>2025</v>
       </c>
@@ -26060,7 +26100,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="430" spans="1:14">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>2026</v>
       </c>
@@ -26083,7 +26123,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="431" spans="1:14">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>2028</v>
       </c>
@@ -26106,7 +26146,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="432" spans="1:14">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>2029</v>
       </c>
@@ -26129,7 +26169,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="433" spans="1:14">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>2031</v>
       </c>
@@ -26152,7 +26192,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="434" spans="1:14">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>2032</v>
       </c>
@@ -26175,7 +26215,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="435" spans="1:14">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>2034</v>
       </c>
@@ -26198,7 +26238,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="436" spans="1:14">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>2035</v>
       </c>
@@ -26221,7 +26261,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="437" spans="1:14">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>2037</v>
       </c>
@@ -26244,7 +26284,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="438" spans="1:14">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>2038</v>
       </c>
@@ -26267,7 +26307,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="439" spans="1:14">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>2040</v>
       </c>
@@ -26290,7 +26330,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="440" spans="1:14">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>2041</v>
       </c>
@@ -26313,7 +26353,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="441" spans="1:14">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>2043</v>
       </c>
@@ -26336,7 +26376,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="442" spans="1:14">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>2044</v>
       </c>
@@ -26359,7 +26399,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="443" spans="1:14">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>2046</v>
       </c>
@@ -26382,7 +26422,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="444" spans="1:14">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>2047</v>
       </c>
@@ -26405,7 +26445,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="445" spans="1:14">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>2049</v>
       </c>
@@ -26428,7 +26468,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="446" spans="1:14">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>2050</v>
       </c>
@@ -26451,7 +26491,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="447" spans="1:14">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>2052</v>
       </c>
@@ -26480,34 +26520,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="387.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="387.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1354</v>
       </c>
@@ -26563,7 +26605,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -26619,7 +26661,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -26669,7 +26711,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1385</v>
       </c>
@@ -26725,12 +26767,12 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1390</v>
       </c>
@@ -26739,6 +26781,9 @@
       </c>
       <c r="G6" t="s">
         <v>2100</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2207</v>
       </c>
     </row>
   </sheetData>
@@ -26747,76 +26792,73 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BH6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -26998,7 +27040,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -27180,7 +27222,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -27341,7 +27383,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -27523,12 +27565,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>213</v>
       </c>
